--- a/medicine/Enfance/Francisco_Arcis/Francisco_Arcis.xlsx
+++ b/medicine/Enfance/Francisco_Arcis/Francisco_Arcis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Francisco Arcis, né le 16 novembre 1961 à Valence en Espagne[1], est un écrivain français. Auteur jeunesse, il a aussi écrit plusieurs romans pour adultes[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francisco Arcis, né le 16 novembre 1961 à Valence en Espagne, est un écrivain français. Auteur jeunesse, il a aussi écrit plusieurs romans pour adultes.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né en 1961 à Valencia, il arrive en France un an après. Il passera son enfance et son adolescence à Saint-Étienne.
 En 1981, il s'installe dans le Doubs, dans le petit village de Saint-Hippolyte. Autodidacte, il enchaîne plusieurs petits boulots, tels qu'ouvrier, ou encore laveur de carreaux. Il trouvera sa vocation dans le métier d'éducateur spécialisé, qu'il exerce toujours, parallèlement à son métier d'écrivain.
 De ce contact avec les jeunes, mais aussi de sa propre enfance, naît le désir d'écrire pour la jeunesse et pour les adultes.
-En 1996, il publie son premier roman Adam aux éditions Marie-Noëlle[3].
-En 1998, paraît aux éditions Magnard son premier roman jeunesse, La Peur du Loup, et en octobre 2000, chez le même éditeur, Le Canon du diable[4].
-Il publiera par la suite une quinzaine d'autres romans, dont une série de cinq romans, dont le dernier tome est paru en 2011[5].
+En 1996, il publie son premier roman Adam aux éditions Marie-Noëlle.
+En 1998, paraît aux éditions Magnard son premier roman jeunesse, La Peur du Loup, et en octobre 2000, chez le même éditeur, Le Canon du diable.
+Il publiera par la suite une quinzaine d'autres romans, dont une série de cinq romans, dont le dernier tome est paru en 2011.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Francisco Arcis est marié et a deux enfants. Sa fille aîné, Isaline Arcis, elle est aussi écrivain. Tandis que son fils, Jean Arcis est membre et créateur du collectif de parkour Kongers Crew.
 </t>
